--- a/xsl/categories_template.xlsx
+++ b/xsl/categories_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="99">
   <si>
     <t>Id</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>6, 3, 9</t>
   </si>
 </sst>
 </file>
@@ -642,15 +645,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="55.42578125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -714,6 +717,9 @@
       </c>
     </row>
     <row r="2" spans="1:19">
+      <c r="A2">
+        <v>27</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
@@ -732,6 +738,15 @@
       <c r="J2" s="2">
         <v>26</v>
       </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
       <c r="R2" s="2" t="s">
         <v>97</v>
       </c>
@@ -740,6 +755,9 @@
       </c>
     </row>
     <row r="3" spans="1:19">
+      <c r="A3">
+        <v>28</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
@@ -758,6 +776,15 @@
       <c r="J3" s="2">
         <v>26</v>
       </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
       <c r="R3" s="2" t="s">
         <v>97</v>
       </c>
@@ -766,6 +793,9 @@
       </c>
     </row>
     <row r="4" spans="1:19">
+      <c r="A4">
+        <v>29</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
@@ -784,6 +814,15 @@
       <c r="J4" s="2">
         <v>26</v>
       </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" t="s">
+        <v>98</v>
+      </c>
       <c r="R4" s="2" t="s">
         <v>97</v>
       </c>
@@ -792,6 +831,9 @@
       </c>
     </row>
     <row r="5" spans="1:19">
+      <c r="A5">
+        <v>30</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -810,6 +852,15 @@
       <c r="J5" s="2">
         <v>26</v>
       </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" t="s">
+        <v>98</v>
+      </c>
       <c r="R5" s="2" t="s">
         <v>97</v>
       </c>
@@ -818,6 +869,9 @@
       </c>
     </row>
     <row r="6" spans="1:19">
+      <c r="A6">
+        <v>31</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -836,6 +890,15 @@
       <c r="J6" s="2">
         <v>26</v>
       </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" t="s">
+        <v>98</v>
+      </c>
       <c r="R6" s="2" t="s">
         <v>97</v>
       </c>
@@ -844,6 +907,9 @@
       </c>
     </row>
     <row r="7" spans="1:19">
+      <c r="A7">
+        <v>32</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
@@ -862,6 +928,15 @@
       <c r="J7" s="2">
         <v>26</v>
       </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
       <c r="R7" s="2" t="s">
         <v>97</v>
       </c>
@@ -870,6 +945,9 @@
       </c>
     </row>
     <row r="8" spans="1:19">
+      <c r="A8">
+        <v>33</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
@@ -888,6 +966,15 @@
       <c r="J8" s="2">
         <v>26</v>
       </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
       <c r="R8" s="2" t="s">
         <v>97</v>
       </c>
@@ -896,6 +983,9 @@
       </c>
     </row>
     <row r="9" spans="1:19">
+      <c r="A9">
+        <v>34</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
@@ -914,6 +1004,15 @@
       <c r="J9" s="2">
         <v>26</v>
       </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
       <c r="R9" s="2" t="s">
         <v>97</v>
       </c>
@@ -922,6 +1021,9 @@
       </c>
     </row>
     <row r="10" spans="1:19">
+      <c r="A10">
+        <v>35</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
@@ -940,6 +1042,15 @@
       <c r="J10" s="2">
         <v>26</v>
       </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
       <c r="R10" s="2" t="s">
         <v>97</v>
       </c>
@@ -948,6 +1059,9 @@
       </c>
     </row>
     <row r="11" spans="1:19">
+      <c r="A11">
+        <v>36</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -966,6 +1080,15 @@
       <c r="J11" s="2">
         <v>26</v>
       </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
       <c r="R11" s="2" t="s">
         <v>97</v>
       </c>
@@ -974,6 +1097,9 @@
       </c>
     </row>
     <row r="12" spans="1:19">
+      <c r="A12">
+        <v>37</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
@@ -992,6 +1118,15 @@
       <c r="J12" s="2">
         <v>26</v>
       </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
       <c r="R12" s="2" t="s">
         <v>97</v>
       </c>
@@ -1000,6 +1135,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
+      <c r="A13">
+        <v>38</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1018,6 +1156,15 @@
       <c r="J13" s="2">
         <v>26</v>
       </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
       <c r="R13" s="2" t="s">
         <v>97</v>
       </c>
@@ -1026,6 +1173,9 @@
       </c>
     </row>
     <row r="14" spans="1:19">
+      <c r="A14">
+        <v>39</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1044,6 +1194,15 @@
       <c r="J14" s="2">
         <v>26</v>
       </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
       <c r="R14" s="2" t="s">
         <v>97</v>
       </c>
@@ -1052,6 +1211,9 @@
       </c>
     </row>
     <row r="15" spans="1:19">
+      <c r="A15">
+        <v>40</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1070,6 +1232,15 @@
       <c r="J15" s="2">
         <v>26</v>
       </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" t="s">
+        <v>98</v>
+      </c>
       <c r="R15" s="2" t="s">
         <v>97</v>
       </c>
@@ -1078,6 +1249,9 @@
       </c>
     </row>
     <row r="16" spans="1:19">
+      <c r="A16">
+        <v>41</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1096,6 +1270,15 @@
       <c r="J16" s="2">
         <v>26</v>
       </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
       <c r="R16" s="2" t="s">
         <v>97</v>
       </c>
@@ -1103,7 +1286,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>42</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1122,6 +1308,15 @@
       <c r="J17" s="2">
         <v>26</v>
       </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" t="s">
+        <v>98</v>
+      </c>
       <c r="R17" s="2" t="s">
         <v>97</v>
       </c>
@@ -1129,7 +1324,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>43</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1148,6 +1346,15 @@
       <c r="J18" s="2">
         <v>26</v>
       </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" t="s">
+        <v>98</v>
+      </c>
       <c r="R18" s="2" t="s">
         <v>97</v>
       </c>
@@ -1155,7 +1362,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>44</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1174,6 +1384,15 @@
       <c r="J19" s="2">
         <v>26</v>
       </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" t="s">
+        <v>98</v>
+      </c>
       <c r="R19" s="2" t="s">
         <v>97</v>
       </c>
@@ -1181,7 +1400,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>45</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -1200,6 +1422,15 @@
       <c r="J20" s="2">
         <v>26</v>
       </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" t="s">
+        <v>98</v>
+      </c>
       <c r="R20" s="2" t="s">
         <v>97</v>
       </c>
@@ -1207,7 +1438,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>46</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1226,6 +1460,15 @@
       <c r="J21" s="2">
         <v>26</v>
       </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" t="s">
+        <v>98</v>
+      </c>
       <c r="R21" s="2" t="s">
         <v>97</v>
       </c>
@@ -1233,7 +1476,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>47</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1252,6 +1498,15 @@
       <c r="J22" s="2">
         <v>26</v>
       </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" t="s">
+        <v>98</v>
+      </c>
       <c r="R22" s="2" t="s">
         <v>97</v>
       </c>
@@ -1259,7 +1514,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <v>48</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
@@ -1278,6 +1536,15 @@
       <c r="J23" s="2">
         <v>26</v>
       </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N23" t="s">
+        <v>98</v>
+      </c>
       <c r="R23" s="2" t="s">
         <v>97</v>
       </c>
@@ -1285,7 +1552,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>49</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
@@ -1304,6 +1574,15 @@
       <c r="J24" s="2">
         <v>26</v>
       </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" t="s">
+        <v>98</v>
+      </c>
       <c r="R24" s="2" t="s">
         <v>97</v>
       </c>
@@ -1311,7 +1590,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>50</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
@@ -1330,6 +1612,15 @@
       <c r="J25" s="2">
         <v>26</v>
       </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" t="s">
+        <v>98</v>
+      </c>
       <c r="R25" s="2" t="s">
         <v>97</v>
       </c>
@@ -1337,7 +1628,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="1:19">
+      <c r="A26">
+        <v>51</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
@@ -1356,6 +1650,15 @@
       <c r="J26" s="2">
         <v>26</v>
       </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" t="s">
+        <v>98</v>
+      </c>
       <c r="R26" s="2" t="s">
         <v>97</v>
       </c>
@@ -1363,7 +1666,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>52</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
@@ -1381,6 +1687,15 @@
       </c>
       <c r="J27" s="2">
         <v>26</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N27" t="s">
+        <v>98</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>97</v>

--- a/xsl/categories_template.xlsx
+++ b/xsl/categories_template.xlsx
@@ -645,13 +645,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" customWidth="1"/>
